--- a/WebRoot/extra/数据库设计图.xlsx
+++ b/WebRoot/extra/数据库设计图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="2490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,6 +176,21 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mail            VARCHAR(36)     NULL,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>hospital_id     VARCHAR(36)     NULL,</a:t>
           </a:r>
@@ -622,6 +637,21 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>phone           VARCHAR(16)     NOT NULL,</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mail            VARCHAR(36)     NULL,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2725,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
